--- a/src/test/resources/testdata/seller12.xlsx
+++ b/src/test/resources/testdata/seller12.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="211">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,12 +625,40 @@
   </si>
   <si>
     <t>AUZFHHJ8K6TJL</t>
+  </si>
+  <si>
+    <t>30/10--0:59</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>1/11--21:6</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>3/11--8:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,22 +1005,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5703125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.7109375"/>
+    <col min="3" max="17" customWidth="true" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,6 +1031,33 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2349,7 +2405,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
@@ -2357,23 +2413,23 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
@@ -2381,7 +2437,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
@@ -2389,7 +2445,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
@@ -2397,7 +2453,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
@@ -2405,7 +2461,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
@@ -2413,7 +2469,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
@@ -2421,7 +2477,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
@@ -2429,7 +2485,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
@@ -2437,15 +2493,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
@@ -2453,23 +2509,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
@@ -2477,15 +2533,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
@@ -2493,7 +2549,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
@@ -2501,7 +2557,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
@@ -2509,7 +2565,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
@@ -2517,23 +2573,23 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
@@ -2541,7 +2597,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
@@ -2549,7 +2605,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
@@ -2557,23 +2613,23 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
@@ -2581,17 +2637,9 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="7" t="s">
         <v>201</v>
       </c>
     </row>
